--- a/data/pca/factorExposure/factorExposure_2017-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02333549578858458</v>
+        <v>0.007495832616235658</v>
       </c>
       <c r="C2">
-        <v>-0.001252241120295715</v>
+        <v>-0.03919527598384214</v>
       </c>
       <c r="D2">
-        <v>0.0140715132989776</v>
+        <v>-0.02918877077071586</v>
       </c>
       <c r="E2">
-        <v>-0.01118257960924214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02511105573804163</v>
+      </c>
+      <c r="F2">
+        <v>0.02808921636681054</v>
+      </c>
+      <c r="G2">
+        <v>0.02863459204009964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01291018783772668</v>
+        <v>0.05232940446900455</v>
       </c>
       <c r="C3">
-        <v>0.04212207104042367</v>
+        <v>-0.07755820273045409</v>
       </c>
       <c r="D3">
-        <v>0.01902595450486576</v>
+        <v>-0.01422861692473287</v>
       </c>
       <c r="E3">
-        <v>-0.007749710003926686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08589119046576395</v>
+      </c>
+      <c r="F3">
+        <v>0.06958598799304865</v>
+      </c>
+      <c r="G3">
+        <v>0.06845084952525096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02209714197178128</v>
+        <v>0.05787699651495195</v>
       </c>
       <c r="C4">
-        <v>0.01135967560278668</v>
+        <v>-0.06236545718667619</v>
       </c>
       <c r="D4">
-        <v>0.06372132473452359</v>
+        <v>-0.0225076869682788</v>
       </c>
       <c r="E4">
-        <v>0.01503700181043671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01088231637392136</v>
+      </c>
+      <c r="F4">
+        <v>0.008430960938084381</v>
+      </c>
+      <c r="G4">
+        <v>0.0489449646736777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01520344506621488</v>
+        <v>0.0320155021360547</v>
       </c>
       <c r="C6">
-        <v>0.01361263304562797</v>
+        <v>-0.05134943559054278</v>
       </c>
       <c r="D6">
-        <v>0.08216991625542315</v>
+        <v>-0.01596025520434907</v>
       </c>
       <c r="E6">
-        <v>0.00246899121511747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0117533927474772</v>
+      </c>
+      <c r="F6">
+        <v>0.008739888787730792</v>
+      </c>
+      <c r="G6">
+        <v>0.03086467601991574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01003908104562283</v>
+        <v>0.01707236621540525</v>
       </c>
       <c r="C7">
-        <v>0.0003745910202058565</v>
+        <v>-0.03732844851597659</v>
       </c>
       <c r="D7">
-        <v>0.0350706821778666</v>
+        <v>-0.01308843228440196</v>
       </c>
       <c r="E7">
-        <v>0.07069852996448991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01196552029902924</v>
+      </c>
+      <c r="F7">
+        <v>0.003656330949691026</v>
+      </c>
+      <c r="G7">
+        <v>0.08149171711876341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002073555727574566</v>
+        <v>-0.003345775163006734</v>
       </c>
       <c r="C8">
-        <v>-0.007415654424951025</v>
+        <v>-0.01846405608949385</v>
       </c>
       <c r="D8">
-        <v>0.006603323113222928</v>
+        <v>-0.003908710086497132</v>
       </c>
       <c r="E8">
-        <v>0.008664246590323938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02144230668289636</v>
+      </c>
+      <c r="F8">
+        <v>0.02274832442449281</v>
+      </c>
+      <c r="G8">
+        <v>0.02390394961216163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01459569560830672</v>
+        <v>0.03004893524047346</v>
       </c>
       <c r="C9">
-        <v>0.01105913322249942</v>
+        <v>-0.04323819668685071</v>
       </c>
       <c r="D9">
-        <v>0.04757269576122573</v>
+        <v>-0.01583144408793585</v>
       </c>
       <c r="E9">
-        <v>0.004785067668884389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01099897311670542</v>
+      </c>
+      <c r="F9">
+        <v>0.01545630209957051</v>
+      </c>
+      <c r="G9">
+        <v>0.03997451714690418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0114192001513331</v>
+        <v>0.0931011818853512</v>
       </c>
       <c r="C10">
-        <v>0.1678368852939561</v>
+        <v>0.1826446212393427</v>
       </c>
       <c r="D10">
-        <v>-0.1094945695634941</v>
+        <v>0.01808227818219648</v>
       </c>
       <c r="E10">
-        <v>0.01650059799475215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01133094021443946</v>
+      </c>
+      <c r="F10">
+        <v>-0.01296611935052476</v>
+      </c>
+      <c r="G10">
+        <v>0.04079359207258169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.795990613233811e-05</v>
+        <v>0.03264540670334829</v>
       </c>
       <c r="C11">
-        <v>0.001205037320045926</v>
+        <v>-0.05345765114275949</v>
       </c>
       <c r="D11">
-        <v>0.04355379872225859</v>
+        <v>-0.001823218527123633</v>
       </c>
       <c r="E11">
-        <v>-0.01003658273036226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001904153835329396</v>
+      </c>
+      <c r="F11">
+        <v>0.01936167223796735</v>
+      </c>
+      <c r="G11">
+        <v>0.02304190660861785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005478998155811594</v>
+        <v>0.03098095811491537</v>
       </c>
       <c r="C12">
-        <v>0.01000855489882886</v>
+        <v>-0.04531918574478996</v>
       </c>
       <c r="D12">
-        <v>0.04553609997227126</v>
+        <v>-0.005974130479792853</v>
       </c>
       <c r="E12">
-        <v>-0.001409596970595723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003739573723935485</v>
+      </c>
+      <c r="F12">
+        <v>0.005669312461356307</v>
+      </c>
+      <c r="G12">
+        <v>0.0271259748289176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02116803711633673</v>
+        <v>0.01325830473682168</v>
       </c>
       <c r="C13">
-        <v>0.01080705126720614</v>
+        <v>-0.03227684305188739</v>
       </c>
       <c r="D13">
-        <v>0.01542319401943393</v>
+        <v>-0.02478325061277044</v>
       </c>
       <c r="E13">
-        <v>-0.00735223498764224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01957224767521429</v>
+      </c>
+      <c r="F13">
+        <v>0.01659259959356022</v>
+      </c>
+      <c r="G13">
+        <v>0.0345918969061095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006957929740094571</v>
+        <v>0.007114499257769637</v>
       </c>
       <c r="C14">
-        <v>0.01036583032860275</v>
+        <v>-0.02717179656473077</v>
       </c>
       <c r="D14">
-        <v>0.01677340953857381</v>
+        <v>-0.008780233804616847</v>
       </c>
       <c r="E14">
-        <v>0.01109354919997281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007130032445171854</v>
+      </c>
+      <c r="F14">
+        <v>-0.001525931249670638</v>
+      </c>
+      <c r="G14">
+        <v>0.04118901627757737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006012399153084144</v>
+        <v>0.03047839362884189</v>
       </c>
       <c r="C16">
-        <v>0.008693074011439145</v>
+        <v>-0.0440987418664595</v>
       </c>
       <c r="D16">
-        <v>0.04680090179331318</v>
+        <v>-0.001389497001522166</v>
       </c>
       <c r="E16">
-        <v>-0.003351835768004327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004151738794256785</v>
+      </c>
+      <c r="F16">
+        <v>0.009069731033883432</v>
+      </c>
+      <c r="G16">
+        <v>0.02502662826032546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01300568374846604</v>
+        <v>0.0240973512456935</v>
       </c>
       <c r="C19">
-        <v>0.0226837872134509</v>
+        <v>-0.04942850582817285</v>
       </c>
       <c r="D19">
-        <v>0.02775453920430769</v>
+        <v>-0.01606124817910475</v>
       </c>
       <c r="E19">
-        <v>0.006253416055743631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05022174394982614</v>
+      </c>
+      <c r="F19">
+        <v>0.03349228588980815</v>
+      </c>
+      <c r="G19">
+        <v>0.04993139184078785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01019144378513481</v>
+        <v>0.01127905220764417</v>
       </c>
       <c r="C20">
-        <v>0.0056233875674636</v>
+        <v>-0.03444556291832562</v>
       </c>
       <c r="D20">
-        <v>0.01196785337477688</v>
+        <v>-0.01301555046942175</v>
       </c>
       <c r="E20">
-        <v>0.0005387533566739501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02078539774492079</v>
+      </c>
+      <c r="F20">
+        <v>0.0001282027407121002</v>
+      </c>
+      <c r="G20">
+        <v>0.03964362185494994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01398098466597647</v>
+        <v>0.01369522036999849</v>
       </c>
       <c r="C21">
-        <v>0.03122955802030186</v>
+        <v>-0.03678867810567116</v>
       </c>
       <c r="D21">
-        <v>0.02534528233013681</v>
+        <v>-0.0163400463811231</v>
       </c>
       <c r="E21">
-        <v>0.01812614815371422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02877512788844129</v>
+      </c>
+      <c r="F21">
+        <v>0.01127223524057622</v>
+      </c>
+      <c r="G21">
+        <v>0.06031798231143639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004651615921429708</v>
+        <v>0.0246656255502096</v>
       </c>
       <c r="C24">
-        <v>0.001212394780551834</v>
+        <v>-0.04667203614187625</v>
       </c>
       <c r="D24">
-        <v>0.04342757260562981</v>
+        <v>-0.006788358686951964</v>
       </c>
       <c r="E24">
-        <v>-0.004359954751793103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0003342727318701789</v>
+      </c>
+      <c r="F24">
+        <v>0.01662091680088888</v>
+      </c>
+      <c r="G24">
+        <v>0.02710552923672339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01109305929913115</v>
+        <v>0.04112000948550151</v>
       </c>
       <c r="C25">
-        <v>0.01713613946703147</v>
+        <v>-0.05409344964234881</v>
       </c>
       <c r="D25">
-        <v>0.04547789797884714</v>
+        <v>-0.01082927320908719</v>
       </c>
       <c r="E25">
-        <v>-0.003671304076873084</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006902622272111214</v>
+      </c>
+      <c r="F25">
+        <v>0.01114329822631618</v>
+      </c>
+      <c r="G25">
+        <v>0.03310807746946085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02236568074402863</v>
+        <v>0.01055082106402304</v>
       </c>
       <c r="C26">
-        <v>0.008136872363953057</v>
+        <v>-0.009449542777082032</v>
       </c>
       <c r="D26">
-        <v>-0.005110215038159705</v>
+        <v>-0.02375571302188512</v>
       </c>
       <c r="E26">
-        <v>0.00990675883104233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005484761955640943</v>
+      </c>
+      <c r="F26">
+        <v>0.002516578879126446</v>
+      </c>
+      <c r="G26">
+        <v>0.03204058390686651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02996010873772414</v>
+        <v>0.1195990981595073</v>
       </c>
       <c r="C28">
-        <v>0.2482875546590839</v>
+        <v>0.2246955990366719</v>
       </c>
       <c r="D28">
-        <v>-0.1545056762758943</v>
+        <v>0.009033017887321568</v>
       </c>
       <c r="E28">
-        <v>0.02747397738749916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0009430458537497968</v>
+      </c>
+      <c r="F28">
+        <v>-0.009636889602439812</v>
+      </c>
+      <c r="G28">
+        <v>0.06046220879370938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007230275064818595</v>
+        <v>0.01264945546119826</v>
       </c>
       <c r="C29">
-        <v>0.01584562783642658</v>
+        <v>-0.02123102832706909</v>
       </c>
       <c r="D29">
-        <v>0.0147328203637065</v>
+        <v>-0.007452921245855359</v>
       </c>
       <c r="E29">
-        <v>0.007205018709856171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008900011831292232</v>
+      </c>
+      <c r="F29">
+        <v>-0.01103089838915169</v>
+      </c>
+      <c r="G29">
+        <v>0.03170214206206939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0229575598478278</v>
+        <v>0.04433302241092005</v>
       </c>
       <c r="C30">
-        <v>-0.003165689259991963</v>
+        <v>-0.06616174661813543</v>
       </c>
       <c r="D30">
-        <v>0.06249105403514128</v>
+        <v>-0.02704659746225151</v>
       </c>
       <c r="E30">
-        <v>-0.05840606085763964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03384979842574109</v>
+      </c>
+      <c r="F30">
+        <v>0.04991163413961968</v>
+      </c>
+      <c r="G30">
+        <v>0.009442699355878567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007341527674941034</v>
+        <v>0.04452582535371373</v>
       </c>
       <c r="C31">
-        <v>0.0411850396735443</v>
+        <v>-0.03180320841938367</v>
       </c>
       <c r="D31">
-        <v>0.04492188335132178</v>
+        <v>-0.003349039998778476</v>
       </c>
       <c r="E31">
-        <v>0.005598821183666164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00695035219309659</v>
+      </c>
+      <c r="F31">
+        <v>-0.03495341863033783</v>
+      </c>
+      <c r="G31">
+        <v>0.02808061386876144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007372200636550054</v>
+        <v>0.0006176809814168763</v>
       </c>
       <c r="C32">
-        <v>0.01501517327886879</v>
+        <v>-0.03358905880378299</v>
       </c>
       <c r="D32">
-        <v>0.003109033688500811</v>
+        <v>0.004211782364230181</v>
       </c>
       <c r="E32">
-        <v>0.03018908293517705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007108011856497965</v>
+      </c>
+      <c r="F32">
+        <v>0.05190089949480046</v>
+      </c>
+      <c r="G32">
+        <v>0.05919272227774298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01204042929006311</v>
+        <v>0.02552098535141835</v>
       </c>
       <c r="C33">
-        <v>0.02079797427393637</v>
+        <v>-0.04809966671404176</v>
       </c>
       <c r="D33">
-        <v>0.02504205988159631</v>
+        <v>-0.01422204804150124</v>
       </c>
       <c r="E33">
-        <v>-0.02240715626173835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02006129782250129</v>
+      </c>
+      <c r="F33">
+        <v>0.02748792243776087</v>
+      </c>
+      <c r="G33">
+        <v>0.03691517816218708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004953089391433668</v>
+        <v>0.0435860823992338</v>
       </c>
       <c r="C34">
-        <v>0.01522840171191453</v>
+        <v>-0.0550680687346274</v>
       </c>
       <c r="D34">
-        <v>0.04981261359422826</v>
+        <v>0.005324875423783162</v>
       </c>
       <c r="E34">
-        <v>0.004095775106501284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.00965122891213172</v>
+      </c>
+      <c r="F34">
+        <v>0.01971686924775413</v>
+      </c>
+      <c r="G34">
+        <v>0.03814382786002257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01168486834036123</v>
+        <v>0.0108281513220688</v>
       </c>
       <c r="C36">
-        <v>0.01684055828338439</v>
+        <v>-0.0078934879289749</v>
       </c>
       <c r="D36">
-        <v>0.002925543375645919</v>
+        <v>-0.01148841239504261</v>
       </c>
       <c r="E36">
-        <v>0.003242131071198133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001091969604110078</v>
+      </c>
+      <c r="F36">
+        <v>-0.003602527249169899</v>
+      </c>
+      <c r="G36">
+        <v>0.02524939731012064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00593857807417462</v>
+        <v>0.03147778161449221</v>
       </c>
       <c r="C38">
-        <v>0.02867485682384207</v>
+        <v>-0.02722679783696643</v>
       </c>
       <c r="D38">
-        <v>0.02043017658127873</v>
+        <v>0.007709024129881206</v>
       </c>
       <c r="E38">
-        <v>0.004341977662999074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002888357471404901</v>
+      </c>
+      <c r="F38">
+        <v>-0.006656463179894457</v>
+      </c>
+      <c r="G38">
+        <v>0.03381385009656131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005603548950631075</v>
+        <v>0.03013891491833392</v>
       </c>
       <c r="C39">
-        <v>-0.02653502145459264</v>
+        <v>-0.08064913533614688</v>
       </c>
       <c r="D39">
-        <v>0.08826406215240951</v>
+        <v>-0.01206720094535313</v>
       </c>
       <c r="E39">
-        <v>-0.01191675015810956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02111725520912544</v>
+      </c>
+      <c r="F39">
+        <v>0.04009251049387508</v>
+      </c>
+      <c r="G39">
+        <v>0.0288945904763948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009995870582798281</v>
+        <v>0.02011796566400307</v>
       </c>
       <c r="C40">
-        <v>0.009183089644105673</v>
+        <v>-0.0309165080981163</v>
       </c>
       <c r="D40">
-        <v>0.0390551543013813</v>
+        <v>-0.01277598940800361</v>
       </c>
       <c r="E40">
-        <v>-0.006818270253220491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01697143173764544</v>
+      </c>
+      <c r="F40">
+        <v>0.01926978018306234</v>
+      </c>
+      <c r="G40">
+        <v>0.02592782715141963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005081961068167606</v>
+        <v>0.01207487927979443</v>
       </c>
       <c r="C41">
-        <v>0.02213486416853878</v>
+        <v>0.0006217903804910416</v>
       </c>
       <c r="D41">
-        <v>-0.008270304712277035</v>
+        <v>-0.003574299528415738</v>
       </c>
       <c r="E41">
-        <v>0.004857935579300546</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002824164119387226</v>
+      </c>
+      <c r="F41">
+        <v>-0.001323781979796126</v>
+      </c>
+      <c r="G41">
+        <v>0.01726793608498014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09414826226736231</v>
+        <v>0.0177193881922227</v>
       </c>
       <c r="C42">
-        <v>-0.01345823869474377</v>
+        <v>-0.04433384673246445</v>
       </c>
       <c r="D42">
-        <v>0.26123736974017</v>
+        <v>-0.0952621947057973</v>
       </c>
       <c r="E42">
-        <v>-0.2990988078723028</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04103822682594223</v>
+      </c>
+      <c r="F42">
+        <v>-0.04280496939166619</v>
+      </c>
+      <c r="G42">
+        <v>-0.172028341386913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005970602674764128</v>
+        <v>0.02757622863025704</v>
       </c>
       <c r="C43">
-        <v>0.02222740497098819</v>
+        <v>-0.01032905456052431</v>
       </c>
       <c r="D43">
-        <v>-0.01259785875615069</v>
+        <v>-0.003999820321173114</v>
       </c>
       <c r="E43">
-        <v>0.0001690555173383945</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003379055480842344</v>
+      </c>
+      <c r="F43">
+        <v>-0.003801772654265162</v>
+      </c>
+      <c r="G43">
+        <v>0.02249375997247416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0028025116071642</v>
+        <v>0.01497217413417671</v>
       </c>
       <c r="C44">
-        <v>-0.001574459673167519</v>
+        <v>-0.05033091204129774</v>
       </c>
       <c r="D44">
-        <v>0.02625772861146934</v>
+        <v>-0.006252390858974621</v>
       </c>
       <c r="E44">
-        <v>0.002809200722054708</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01486464467907761</v>
+      </c>
+      <c r="F44">
+        <v>0.006481444871470184</v>
+      </c>
+      <c r="G44">
+        <v>0.0393145757472176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01045424198685601</v>
+        <v>0.005713697766669953</v>
       </c>
       <c r="C46">
-        <v>0.01781367676887185</v>
+        <v>-0.01707127590027225</v>
       </c>
       <c r="D46">
-        <v>0.01366531168646131</v>
+        <v>-0.01146922280522929</v>
       </c>
       <c r="E46">
-        <v>0.002269677414714729</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004008957845873125</v>
+      </c>
+      <c r="F46">
+        <v>-0.01361328109160159</v>
+      </c>
+      <c r="G46">
+        <v>0.02825786082636235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001304427291899984</v>
+        <v>0.07344088504029553</v>
       </c>
       <c r="C47">
-        <v>0.05159476276315356</v>
+        <v>-0.06534082592419975</v>
       </c>
       <c r="D47">
-        <v>0.05836398970510901</v>
+        <v>0.004992883421327546</v>
       </c>
       <c r="E47">
-        <v>-0.004442138139296644</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007587896717086371</v>
+      </c>
+      <c r="F47">
+        <v>-0.05411344188254814</v>
+      </c>
+      <c r="G47">
+        <v>0.02567223457955232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002480595854003318</v>
+        <v>0.02113882112872015</v>
       </c>
       <c r="C48">
-        <v>0.02498410651368085</v>
+        <v>-0.01058996354070773</v>
       </c>
       <c r="D48">
-        <v>0.01341840761317465</v>
+        <v>-0.0008205235041035655</v>
       </c>
       <c r="E48">
-        <v>0.001896356672044049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003120007826833793</v>
+      </c>
+      <c r="F48">
+        <v>-0.01342661205312271</v>
+      </c>
+      <c r="G48">
+        <v>0.03021632861538669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00235991485902319</v>
+        <v>0.07698929738180911</v>
       </c>
       <c r="C50">
-        <v>0.04145427725017813</v>
+        <v>-0.06689635908746676</v>
       </c>
       <c r="D50">
-        <v>0.06547075469187258</v>
+        <v>0.003476711341414902</v>
       </c>
       <c r="E50">
-        <v>0.02267950541242966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01094435426146699</v>
+      </c>
+      <c r="F50">
+        <v>-0.05292617958673082</v>
+      </c>
+      <c r="G50">
+        <v>0.04935006276582224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006846101935531067</v>
+        <v>0.01082095206826783</v>
       </c>
       <c r="C51">
-        <v>0.01893752699202378</v>
+        <v>-0.02754064951184184</v>
       </c>
       <c r="D51">
-        <v>-0.01038138816379591</v>
+        <v>-0.009023570377725595</v>
       </c>
       <c r="E51">
-        <v>0.01007225514981511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.007087556171229343</v>
+      </c>
+      <c r="F51">
+        <v>0.02412498334978924</v>
+      </c>
+      <c r="G51">
+        <v>0.0541951339962061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004037316574429875</v>
+        <v>0.09152310762643429</v>
       </c>
       <c r="C53">
-        <v>0.0622671520433231</v>
+        <v>-0.08304886751813977</v>
       </c>
       <c r="D53">
-        <v>0.1148933716656994</v>
+        <v>0.004991154773868853</v>
       </c>
       <c r="E53">
-        <v>0.0009557423424909756</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03930126012574594</v>
+      </c>
+      <c r="F53">
+        <v>-0.06651875832610593</v>
+      </c>
+      <c r="G53">
+        <v>0.02723264417575567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001011003859982997</v>
+        <v>0.02805503406752906</v>
       </c>
       <c r="C54">
-        <v>0.03492802439321126</v>
+        <v>-0.01059763182157384</v>
       </c>
       <c r="D54">
-        <v>-0.005665271844172161</v>
+        <v>0.002912343987640918</v>
       </c>
       <c r="E54">
-        <v>0.01149652423434191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00116009713551131</v>
+      </c>
+      <c r="F54">
+        <v>-0.002140945319678676</v>
+      </c>
+      <c r="G54">
+        <v>0.03491638878661717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001654441825367525</v>
+        <v>0.07236219163184979</v>
       </c>
       <c r="C55">
-        <v>0.04432790495747375</v>
+        <v>-0.07425660423288288</v>
       </c>
       <c r="D55">
-        <v>0.09850177188022868</v>
+        <v>0.004569559966472149</v>
       </c>
       <c r="E55">
-        <v>-0.01116838694851105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02547111147560819</v>
+      </c>
+      <c r="F55">
+        <v>-0.05768171499496073</v>
+      </c>
+      <c r="G55">
+        <v>0.0118624920205735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0008775924037631947</v>
+        <v>0.1420617059756696</v>
       </c>
       <c r="C56">
-        <v>0.07975970377496383</v>
+        <v>-0.1058056787763457</v>
       </c>
       <c r="D56">
-        <v>0.1468960941626458</v>
+        <v>0.01343301913077816</v>
       </c>
       <c r="E56">
-        <v>-0.01084921751815773</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03458376297777677</v>
+      </c>
+      <c r="F56">
+        <v>-0.09306151742288908</v>
+      </c>
+      <c r="G56">
+        <v>-0.0002187241667464649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02302110055942028</v>
+        <v>0.01067453306524503</v>
       </c>
       <c r="C57">
-        <v>0.01931437230172485</v>
+        <v>-0.01018697669217273</v>
       </c>
       <c r="D57">
-        <v>0.03603368025122839</v>
+        <v>-0.023490998629799</v>
       </c>
       <c r="E57">
-        <v>-0.009804360577470474</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02676979640821103</v>
+      </c>
+      <c r="F57">
+        <v>0.01783099087044422</v>
+      </c>
+      <c r="G57">
+        <v>0.02022029406870302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01027432924468962</v>
+        <v>0.08609535176914589</v>
       </c>
       <c r="C58">
-        <v>0.08964961377354277</v>
+        <v>-0.04480362019940171</v>
       </c>
       <c r="D58">
-        <v>0.105697854198433</v>
+        <v>-0.01221012899451214</v>
       </c>
       <c r="E58">
-        <v>-0.2030585410803048</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9582206692204055</v>
+      </c>
+      <c r="F58">
+        <v>-0.1693933634083754</v>
+      </c>
+      <c r="G58">
+        <v>0.003884494045807267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0259010751548087</v>
+        <v>0.1579686972808394</v>
       </c>
       <c r="C59">
-        <v>0.2553682211908295</v>
+        <v>0.2087737850897758</v>
       </c>
       <c r="D59">
-        <v>-0.1532979088415015</v>
+        <v>0.01597460667131171</v>
       </c>
       <c r="E59">
-        <v>0.003482935383187411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.009148551245479296</v>
+      </c>
+      <c r="F59">
+        <v>0.008798374209943203</v>
+      </c>
+      <c r="G59">
+        <v>0.02164450115509162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03125677023780182</v>
+        <v>0.2873231250497947</v>
       </c>
       <c r="C60">
-        <v>0.1531658107450646</v>
+        <v>-0.1001160361196501</v>
       </c>
       <c r="D60">
-        <v>0.0982723019207305</v>
+        <v>-0.009894958764324406</v>
       </c>
       <c r="E60">
-        <v>-0.04823969539414323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0242612784392808</v>
+      </c>
+      <c r="F60">
+        <v>0.3630710799056064</v>
+      </c>
+      <c r="G60">
+        <v>-0.08416811865414398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002888631987980435</v>
+        <v>0.03174912839298676</v>
       </c>
       <c r="C61">
-        <v>0.002747143871725038</v>
+        <v>-0.06495134887633415</v>
       </c>
       <c r="D61">
-        <v>0.06571773337501187</v>
+        <v>-0.005330795420971183</v>
       </c>
       <c r="E61">
-        <v>-0.006938228267129706</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008738119526567698</v>
+      </c>
+      <c r="F61">
+        <v>0.02153072905429203</v>
+      </c>
+      <c r="G61">
+        <v>0.02687630900814071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007058462952823761</v>
+        <v>0.01081534264221318</v>
       </c>
       <c r="C63">
-        <v>0.006234621789908893</v>
+        <v>-0.02875945461108633</v>
       </c>
       <c r="D63">
-        <v>0.007596270633753577</v>
+        <v>-0.008152077532851992</v>
       </c>
       <c r="E63">
-        <v>0.009372361921870579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007229633810874801</v>
+      </c>
+      <c r="F63">
+        <v>-0.01828997941488184</v>
+      </c>
+      <c r="G63">
+        <v>0.03711532436408107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006965786393766776</v>
+        <v>0.04989032998228249</v>
       </c>
       <c r="C64">
-        <v>0.0252859575037654</v>
+        <v>-0.04022748370147458</v>
       </c>
       <c r="D64">
-        <v>0.06885843470426557</v>
+        <v>-0.005033962354493166</v>
       </c>
       <c r="E64">
-        <v>-0.01053681783832274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006732904085992763</v>
+      </c>
+      <c r="F64">
+        <v>0.003428619463125433</v>
+      </c>
+      <c r="G64">
+        <v>0.02344956554132364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01754755543654062</v>
+        <v>0.08152168531514531</v>
       </c>
       <c r="C65">
-        <v>0.01729385459656161</v>
+        <v>-0.06317514506164998</v>
       </c>
       <c r="D65">
-        <v>0.09435121697712438</v>
+        <v>-0.01512872435409208</v>
       </c>
       <c r="E65">
-        <v>-0.0002546869236587335</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01236507472054691</v>
+      </c>
+      <c r="F65">
+        <v>0.03010696235674233</v>
+      </c>
+      <c r="G65">
+        <v>0.0151827984838486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005234901411105573</v>
+        <v>0.05088558911453248</v>
       </c>
       <c r="C66">
-        <v>-0.01826732041866402</v>
+        <v>-0.1134018692547053</v>
       </c>
       <c r="D66">
-        <v>0.1135840515954901</v>
+        <v>-0.01150665355175104</v>
       </c>
       <c r="E66">
-        <v>-0.0274073129960195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0230109350665397</v>
+      </c>
+      <c r="F66">
+        <v>0.04798141011333708</v>
+      </c>
+      <c r="G66">
+        <v>0.02172398726617704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0007524238983483373</v>
+        <v>0.0550791446318927</v>
       </c>
       <c r="C67">
-        <v>0.04582063768315735</v>
+        <v>-0.03230208728196036</v>
       </c>
       <c r="D67">
-        <v>0.02790160867970731</v>
+        <v>0.005895457058371262</v>
       </c>
       <c r="E67">
-        <v>0.002069130973863444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003731642834226515</v>
+      </c>
+      <c r="F67">
+        <v>-0.006831627313233325</v>
+      </c>
+      <c r="G67">
+        <v>0.03157133570020836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04429148541375889</v>
+        <v>0.1416407033042626</v>
       </c>
       <c r="C68">
-        <v>0.2316611801402314</v>
+        <v>0.2679005407735605</v>
       </c>
       <c r="D68">
-        <v>-0.1461493549463102</v>
+        <v>-0.002060174855163734</v>
       </c>
       <c r="E68">
-        <v>-0.003585987332499555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009246998317448815</v>
+      </c>
+      <c r="F68">
+        <v>-0.03740528172035231</v>
+      </c>
+      <c r="G68">
+        <v>0.02298211605717282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003308692925869962</v>
+        <v>0.07664297922385495</v>
       </c>
       <c r="C69">
-        <v>0.03630660761682273</v>
+        <v>-0.06636729308888183</v>
       </c>
       <c r="D69">
-        <v>0.06267628355659874</v>
+        <v>0.008877160277598143</v>
       </c>
       <c r="E69">
-        <v>0.0007415363595730981</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02703358562600545</v>
+      </c>
+      <c r="F69">
+        <v>-0.04093778587832679</v>
+      </c>
+      <c r="G69">
+        <v>0.02712035556316234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03104368692206822</v>
+        <v>0.1389036214759147</v>
       </c>
       <c r="C71">
-        <v>0.2046462424141022</v>
+        <v>0.2318757012841186</v>
       </c>
       <c r="D71">
-        <v>-0.1360093866703912</v>
+        <v>0.007314431103864434</v>
       </c>
       <c r="E71">
-        <v>0.01188745138076608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02092876875868983</v>
+      </c>
+      <c r="F71">
+        <v>-0.01000512608337775</v>
+      </c>
+      <c r="G71">
+        <v>0.03418353811332653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002495960609053994</v>
+        <v>0.08050132887427808</v>
       </c>
       <c r="C72">
-        <v>0.03641996939376278</v>
+        <v>-0.07443521794610976</v>
       </c>
       <c r="D72">
-        <v>0.133536422569949</v>
+        <v>0.008324046389666976</v>
       </c>
       <c r="E72">
-        <v>-0.02995313556353532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0130515743813232</v>
+      </c>
+      <c r="F72">
+        <v>0.03649557513223074</v>
+      </c>
+      <c r="G72">
+        <v>0.005487453166573597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04508628879547164</v>
+        <v>0.3900147274148826</v>
       </c>
       <c r="C73">
-        <v>0.181812838774332</v>
+        <v>-0.107664552289436</v>
       </c>
       <c r="D73">
-        <v>0.164585372692748</v>
+        <v>-0.0153325830455229</v>
       </c>
       <c r="E73">
-        <v>-0.1083635797321893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02523228602947824</v>
+      </c>
+      <c r="F73">
+        <v>0.5571158739408173</v>
+      </c>
+      <c r="G73">
+        <v>-0.1326440854441811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0007541015520163191</v>
+        <v>0.1152878761563202</v>
       </c>
       <c r="C74">
-        <v>0.0726910312096081</v>
+        <v>-0.1201091477955941</v>
       </c>
       <c r="D74">
-        <v>0.1504950467278407</v>
+        <v>0.01013603831263307</v>
       </c>
       <c r="E74">
-        <v>-0.01909036185236975</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01953232235360507</v>
+      </c>
+      <c r="F74">
+        <v>-0.0807941476155252</v>
+      </c>
+      <c r="G74">
+        <v>0.03297193049691771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002548340665266602</v>
+        <v>0.2573609409662542</v>
       </c>
       <c r="C75">
-        <v>0.1769462905243742</v>
+        <v>-0.1573811862290349</v>
       </c>
       <c r="D75">
-        <v>0.2776607278712697</v>
+        <v>0.03066441460769858</v>
       </c>
       <c r="E75">
-        <v>-0.04506424413790164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05481934618586879</v>
+      </c>
+      <c r="F75">
+        <v>-0.1960149878293759</v>
+      </c>
+      <c r="G75">
+        <v>-0.04262184420870701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004511926992085058</v>
+        <v>0.1332381903026313</v>
       </c>
       <c r="C76">
-        <v>0.1231173114844156</v>
+        <v>-0.1269573397835009</v>
       </c>
       <c r="D76">
-        <v>0.2375237651688806</v>
+        <v>0.0209919550053097</v>
       </c>
       <c r="E76">
-        <v>-0.004945950368340525</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05092172462385498</v>
+      </c>
+      <c r="F76">
+        <v>-0.1340608032071114</v>
+      </c>
+      <c r="G76">
+        <v>0.01367819101663188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0109002576779732</v>
+        <v>0.06272039614476722</v>
       </c>
       <c r="C77">
-        <v>0.009176623005485086</v>
+        <v>-0.06377482956254958</v>
       </c>
       <c r="D77">
-        <v>0.06247410156884017</v>
+        <v>-0.01212007541149855</v>
       </c>
       <c r="E77">
-        <v>-0.002474201796997401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04655795459641994</v>
+      </c>
+      <c r="F77">
+        <v>0.01481813779656766</v>
+      </c>
+      <c r="G77">
+        <v>0.05350905249356667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003593646588407808</v>
+        <v>0.03892519637520794</v>
       </c>
       <c r="C78">
-        <v>0.002903481619070688</v>
+        <v>-0.05109721800410353</v>
       </c>
       <c r="D78">
-        <v>0.06612085044548272</v>
+        <v>-0.005654661298339137</v>
       </c>
       <c r="E78">
-        <v>-0.003669793518178854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02005060578091607</v>
+      </c>
+      <c r="F78">
+        <v>0.04182001321033557</v>
+      </c>
+      <c r="G78">
+        <v>0.03592759784184432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01507560877679779</v>
+        <v>0.05691665820839188</v>
       </c>
       <c r="C80">
-        <v>0.1155728680059989</v>
+        <v>-0.0672257464108052</v>
       </c>
       <c r="D80">
-        <v>0.232330589761564</v>
+        <v>-0.01299838180006245</v>
       </c>
       <c r="E80">
-        <v>0.8982783484122057</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03752039620982471</v>
+      </c>
+      <c r="F80">
+        <v>0.03507102514161176</v>
+      </c>
+      <c r="G80">
+        <v>0.9096264389609819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.002647860799133097</v>
+        <v>0.1449474455735331</v>
       </c>
       <c r="C81">
-        <v>0.1165521787742921</v>
+        <v>-0.09653160272550332</v>
       </c>
       <c r="D81">
-        <v>0.1725024887089879</v>
+        <v>0.01557808199491061</v>
       </c>
       <c r="E81">
-        <v>-0.01915984314667922</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02985828534121427</v>
+      </c>
+      <c r="F81">
+        <v>-0.1311489901288377</v>
+      </c>
+      <c r="G81">
+        <v>0.01186897791858074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05288803709331487</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.04184912380945917</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00254310678367728</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02232486027850864</v>
+      </c>
+      <c r="F82">
+        <v>-0.01343312745352992</v>
+      </c>
+      <c r="G82">
+        <v>-0.006354245323117806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006400163364351296</v>
+        <v>0.02778594121107377</v>
       </c>
       <c r="C83">
-        <v>0.02501227293288034</v>
+        <v>-0.01965440863453883</v>
       </c>
       <c r="D83">
-        <v>0.02512662250727325</v>
+        <v>-0.004894710079369795</v>
       </c>
       <c r="E83">
-        <v>-0.00593764838751234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02532680979808245</v>
+      </c>
+      <c r="F83">
+        <v>0.02350241346352683</v>
+      </c>
+      <c r="G83">
+        <v>0.02278797898139837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01031393228375933</v>
+        <v>0.2314809465370436</v>
       </c>
       <c r="C85">
-        <v>0.1378559968940745</v>
+        <v>-0.1557976266048559</v>
       </c>
       <c r="D85">
-        <v>0.2667624917411174</v>
+        <v>0.0190146126466103</v>
       </c>
       <c r="E85">
-        <v>-0.04495570573045186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1045210893585161</v>
+      </c>
+      <c r="F85">
+        <v>-0.1802425813124976</v>
+      </c>
+      <c r="G85">
+        <v>-0.06159421673576448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006627791641176053</v>
+        <v>0.01115668655083954</v>
       </c>
       <c r="C86">
-        <v>0.02602568054057824</v>
+        <v>-0.01539414997428254</v>
       </c>
       <c r="D86">
-        <v>0.009996207603985117</v>
+        <v>-0.009514739887073331</v>
       </c>
       <c r="E86">
-        <v>-0.02091860464351232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02768634669290745</v>
+      </c>
+      <c r="F86">
+        <v>0.03675205226151943</v>
+      </c>
+      <c r="G86">
+        <v>0.05327682094524609</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007074954155267503</v>
+        <v>0.01950249617204058</v>
       </c>
       <c r="C87">
-        <v>0.007897589029009907</v>
+        <v>-0.02576790845516523</v>
       </c>
       <c r="D87">
-        <v>0.03843209462254832</v>
+        <v>-0.01042700933211253</v>
       </c>
       <c r="E87">
-        <v>-0.005870297720633486</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08357449880832586</v>
+      </c>
+      <c r="F87">
+        <v>0.03379568813657383</v>
+      </c>
+      <c r="G87">
+        <v>0.04632324424321296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02620089102517494</v>
+        <v>0.08978149397840987</v>
       </c>
       <c r="C88">
-        <v>0.03723788347480088</v>
+        <v>-0.06135694061459462</v>
       </c>
       <c r="D88">
-        <v>0.03338507580801966</v>
+        <v>-0.02203864232905158</v>
       </c>
       <c r="E88">
-        <v>-0.004985008042027689</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01212830900306815</v>
+      </c>
+      <c r="F88">
+        <v>-0.006726358307595552</v>
+      </c>
+      <c r="G88">
+        <v>0.02335977069505518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05959346504348766</v>
+        <v>0.2303421761428602</v>
       </c>
       <c r="C89">
-        <v>0.3755986907397619</v>
+        <v>0.3639258396163553</v>
       </c>
       <c r="D89">
-        <v>-0.2189084747272275</v>
+        <v>0.006883909010467291</v>
       </c>
       <c r="E89">
-        <v>-0.006917314846517223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02169631230630171</v>
+      </c>
+      <c r="F89">
+        <v>-0.03347907922858528</v>
+      </c>
+      <c r="G89">
+        <v>0.03039169760548354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04536986249999008</v>
+        <v>0.20026012591709</v>
       </c>
       <c r="C90">
-        <v>0.2943667669025811</v>
+        <v>0.3291194481751808</v>
       </c>
       <c r="D90">
-        <v>-0.2128805353419147</v>
+        <v>0.01042477892378337</v>
       </c>
       <c r="E90">
-        <v>-0.008827948198062908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01279331497661363</v>
+      </c>
+      <c r="F90">
+        <v>-0.0504935286464203</v>
+      </c>
+      <c r="G90">
+        <v>0.0002306257070863148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00104589142545156</v>
+        <v>0.2031742699381916</v>
       </c>
       <c r="C91">
-        <v>0.141829785841086</v>
+        <v>-0.1421124145459839</v>
       </c>
       <c r="D91">
-        <v>0.2494886982996214</v>
+        <v>0.02445209636390683</v>
       </c>
       <c r="E91">
-        <v>-0.0249340458517796</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07214740216681263</v>
+      </c>
+      <c r="F91">
+        <v>-0.1748146350149436</v>
+      </c>
+      <c r="G91">
+        <v>1.779268066035624e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01115767148769136</v>
+        <v>0.2075765052380701</v>
       </c>
       <c r="C92">
-        <v>0.3329477542133457</v>
+        <v>0.2563545574768064</v>
       </c>
       <c r="D92">
-        <v>-0.07254032465926918</v>
+        <v>0.04856722433781884</v>
       </c>
       <c r="E92">
-        <v>-0.008338974360251701</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0008185498886859401</v>
+      </c>
+      <c r="F92">
+        <v>-0.1073676889203783</v>
+      </c>
+      <c r="G92">
+        <v>0.06285660124315408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04287880689733121</v>
+        <v>0.2288614476491858</v>
       </c>
       <c r="C93">
-        <v>0.328258557685654</v>
+        <v>0.3290296028577018</v>
       </c>
       <c r="D93">
-        <v>-0.2046127404504994</v>
+        <v>0.01794733778785853</v>
       </c>
       <c r="E93">
-        <v>-0.03363913764306006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0002243965471857804</v>
+      </c>
+      <c r="F93">
+        <v>-0.03693653648659876</v>
+      </c>
+      <c r="G93">
+        <v>-0.003726852244651052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02084014875827438</v>
+        <v>0.2875090811398421</v>
       </c>
       <c r="C94">
-        <v>0.1877478335815817</v>
+        <v>-0.1862641710019106</v>
       </c>
       <c r="D94">
-        <v>0.2526287373336221</v>
+        <v>0.01284902396686663</v>
       </c>
       <c r="E94">
-        <v>-0.0717967670336405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09813999100363577</v>
+      </c>
+      <c r="F94">
+        <v>-0.4472961041260686</v>
+      </c>
+      <c r="G94">
+        <v>-0.1417994232121858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005758016220498534</v>
+        <v>0.0861478750702739</v>
       </c>
       <c r="C95">
-        <v>0.04108873944182395</v>
+        <v>-0.07591824139130902</v>
       </c>
       <c r="D95">
-        <v>0.08134705828443868</v>
+        <v>0.006793229031242771</v>
       </c>
       <c r="E95">
-        <v>-0.1188222127780346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0709979869670815</v>
+      </c>
+      <c r="F95">
+        <v>0.1947160587301129</v>
+      </c>
+      <c r="G95">
+        <v>-0.06300244536635399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005739700335394146</v>
+        <v>0.204510575971719</v>
       </c>
       <c r="C98">
-        <v>0.1530387697582399</v>
+        <v>-0.04406593907412797</v>
       </c>
       <c r="D98">
-        <v>0.1227358605491312</v>
+        <v>0.01629271382492098</v>
       </c>
       <c r="E98">
-        <v>-0.06745798724173527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04685262686324571</v>
+      </c>
+      <c r="F98">
+        <v>0.2597421328819621</v>
+      </c>
+      <c r="G98">
+        <v>-0.03025469018526972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007075071510942639</v>
+        <v>0.01251018954677435</v>
       </c>
       <c r="C101">
-        <v>0.0163404439624673</v>
+        <v>-0.02134591857931056</v>
       </c>
       <c r="D101">
-        <v>0.01537948014448981</v>
+        <v>-0.007244013672988687</v>
       </c>
       <c r="E101">
-        <v>0.007347152381953589</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.009278612606145875</v>
+      </c>
+      <c r="F101">
+        <v>-0.01283225359018939</v>
+      </c>
+      <c r="G101">
+        <v>0.03168263437433544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0145247305369353</v>
+        <v>0.1206992647448837</v>
       </c>
       <c r="C102">
-        <v>0.08727340977327687</v>
+        <v>-0.08501724740492</v>
       </c>
       <c r="D102">
-        <v>0.1344530004666367</v>
+        <v>-0.0007613061815309077</v>
       </c>
       <c r="E102">
-        <v>-0.02302480924815207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03503746453316098</v>
+      </c>
+      <c r="F102">
+        <v>-0.0484386308062997</v>
+      </c>
+      <c r="G102">
+        <v>-0.008045588504760285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001770116817151269</v>
+        <v>0.004439465417127963</v>
       </c>
       <c r="C103">
-        <v>0.01299020679736577</v>
+        <v>-0.005401879368023245</v>
       </c>
       <c r="D103">
-        <v>0.029757373996705</v>
+        <v>-0.0003983647237712989</v>
       </c>
       <c r="E103">
-        <v>0.01238160155379444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002314571425463761</v>
+      </c>
+      <c r="F103">
+        <v>-0.009512081547659456</v>
+      </c>
+      <c r="G103">
+        <v>0.01738203888182504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9838405434473033</v>
+        <v>0.03388806371563381</v>
       </c>
       <c r="C104">
-        <v>-0.1160497972076096</v>
+        <v>0.03928240935941238</v>
       </c>
       <c r="D104">
-        <v>-0.01285308471994635</v>
+        <v>-0.9873611395544967</v>
       </c>
       <c r="E104">
-        <v>0.02787091927354684</v>
+        <v>0.03280612440392983</v>
+      </c>
+      <c r="F104">
+        <v>-0.04424372458853071</v>
+      </c>
+      <c r="G104">
+        <v>-0.008141014376394789</v>
       </c>
     </row>
   </sheetData>
